--- a/serviceauto/src/test/resources/servicecasesv2_5.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv2_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D27CC-9804-443D-A896-D9755C71B0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878EB90C-5C35-4BE3-9661-BA07F7A5DACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="6885" windowWidth="22290" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="2925" windowWidth="22290" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -92,47 +92,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-28"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key":"","date":"2020-10-30"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-29"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-30"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key":"fe6af56e014d3413ce5ed610d72cafc1","date":"2020-10-31"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://119.23.241.154：8081/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154：8083/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154：8084/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154：8085/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154：8080/futureloan/mvc/api/member/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://119.23.241.154：8082/futureloan/mvc/api/member/recharge</t>
+    <t>{"mobilephone":"13517315120","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"13517315120","pwd":"123457"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13517315120","pwd":"123458"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13517315120","pwd":"123459"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13517315120","pwd":"123460"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13517315120","pwd":"123461"}</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8081/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8082/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8082/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8081/futureloan/mvc/api/member/recharge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,10 +174,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,19 +461,19 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
@@ -491,7 +487,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -500,12 +496,12 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -514,12 +510,12 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -528,12 +524,12 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -542,12 +538,12 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -556,12 +552,12 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -570,8 +566,8 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -586,15 +582,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -605,7 +601,7 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
@@ -619,7 +615,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -633,7 +629,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -647,7 +643,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -661,7 +657,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -675,7 +671,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -689,7 +685,7 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
